--- a/Lux purpurata radiis; Diligite iustitiam.xlsx
+++ b/Lux purpurata radiis; Diligite iustitiam.xlsx
@@ -550,7 +550,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>nulli</t>
+          <t>iustitia</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -560,7 +560,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>proprium</t>
+          <t>proprius</t>
         </is>
       </c>
       <c r="B12" t="n">
